--- a/Deliverables/Agile/Sprint Metrics.xlsx
+++ b/Deliverables/Agile/Sprint Metrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.truppo\Documents\18F\octo-roar-mock1\Deliverables\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.truppo\Documents\18F\octo-mock2\octo-mock2\Deliverables\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Metric</t>
   </si>
@@ -62,14 +59,29 @@
     <t>Features Accepted</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
     <r>
-      <t>1.  Government create a new opportunity</t>
+      <t>1.  Search for County</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -78,23 +90,14 @@
     </r>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>1.  Government manage all opportunities</t>
-  </si>
-  <si>
-    <t>1.  Government publish opportunity.  2.  Contractor view published opportunities</t>
-  </si>
-  <si>
-    <t>1.  Government publish opportunity.  2.  Contractor view published opportunities              3.  Government edit opportunity</t>
+    <t>Search for County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,22 +119,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +166,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +202,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -197,7 +230,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +238,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -221,27 +267,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PI Performance Summary"/>
-      <sheetName val="Team 1"/>
-      <sheetName val="Team 2"/>
-      <sheetName val="Team 3"/>
-      <sheetName val="Team 4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +547,7 @@
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,109 +563,118 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
+      <c r="B2" s="11">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <f>('[1]Team 1'!B3+'[1]Team 2'!B3+'[1]Team 3'!B3+'[1]Team 4'!B3)/4</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
+      <c r="B3" s="11">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="151.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
